--- a/samples/simulated/traffic-delay.xlsx
+++ b/samples/simulated/traffic-delay.xlsx
@@ -7,17 +7,19 @@
     <workbookView xWindow="240" yWindow="45" windowWidth="21075" windowHeight="10035"/>
   </bookViews>
   <sheets>
-    <sheet name="Chart2" sheetId="5" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="tt-2-chart" sheetId="7" r:id="rId1"/>
+    <sheet name="tt-2" sheetId="6" r:id="rId2"/>
+    <sheet name="tt-1-chart" sheetId="5" r:id="rId3"/>
+    <sheet name="tt-1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144315"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
     <t>time</t>
   </si>
@@ -124,7 +126,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$98</c:f>
+              <c:f>'tt-1'!$A$2:$A$98</c:f>
               <c:numCache>
                 <c:formatCode>h:mm;@</c:formatCode>
                 <c:ptCount val="97"/>
@@ -424,7 +426,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$98</c:f>
+              <c:f>'tt-1'!$B$2:$B$98</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="97"/>
@@ -741,600 +743,978 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$5:$G$104</c:f>
+              <c:f>'tt-2'!$G$2:$G$161</c:f>
               <c:numCache>
                 <c:formatCode>h:mm</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="160"/>
                 <c:pt idx="0">
-                  <c:v>0.28541666666666665</c:v>
+                  <c:v>0.10277777777777779</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.68680555555555556</c:v>
+                  <c:v>0.99513888888888891</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.95208333333333339</c:v>
+                  <c:v>0.47986111111111113</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.75</c:v>
+                  <c:v>0.64513888888888882</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.42291666666666666</c:v>
+                  <c:v>0.46319444444444446</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.59722222222222221</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.67569444444444438</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.87638888888888899</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.74930555555555556</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89861111111111114</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.88263888888888886</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.56180555555555556</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.63611111111111118</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.40416666666666662</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.67499999999999993</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.89097222222222217</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.47013888888888888</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.61944444444444446</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.48402777777777778</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.43958333333333338</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.1944444444444445E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.83263888888888893</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.69861111111111107</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.46875</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.1013888888888889</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.1527777777777787E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.44097222222222227</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.14305555555555557</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.18333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.94374999999999998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.86736111111111114</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.6430555555555556</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.73055555555555562</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.27152777777777776</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.48888888888888887</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.14722222222222223</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.5395833333333333</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.18402777777777779</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.67152777777777783</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.57430555555555551</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.19305555555555554</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.42152777777777778</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.9861111111111113E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.98472222222222217</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.5972222222222224E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.97083333333333333</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.13125000000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.95347222222222217</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.50486111111111109</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.46388888888888885</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.81874999999999998</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.17222222222222225</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>0.16111111111111112</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.70972222222222225</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.0416666666666666E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.41319444444444442</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.72430555555555554</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.11388888888888889</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.5416666666666666E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.75069444444444444</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.73333333333333339</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.11805555555555557</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.5395833333333333</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.21875</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.56805555555555554</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.76180555555555562</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.38819444444444445</c:v>
-                </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="55">
+                  <c:v>0.62916666666666665</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.38125000000000003</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.60138888888888886</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.23055555555555554</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.56597222222222221</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.49236111111111108</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.88888888888888884</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.41597222222222219</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.83333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.32222222222222224</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.5444444444444444</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4.9999999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.44444444444444442</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.48819444444444443</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.3888888888888889E-3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.2951388888888889</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.10416666666666667</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.41736111111111113</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.33055555555555555</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.61111111111111105</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.41736111111111113</c:v>
+                </c:pt>
+                <c:pt idx="77">
                   <c:v>0.62361111111111112</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.78680555555555554</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2.361111111111111E-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.42291666666666666</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.22847222222222222</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>9.7222222222222224E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.15555555555555556</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2.4999999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="78">
+                  <c:v>0.4465277777777778</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.62847222222222221</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.61875000000000002</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.71944444444444444</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.44513888888888892</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.48680555555555555</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.27361111111111108</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.62361111111111112</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.73263888888888884</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.60972222222222217</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.76597222222222217</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.34375</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.4236111111111111</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.65138888888888891</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.25208333333333333</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.27638888888888885</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.54305555555555551</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.43194444444444446</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.28680555555555554</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.4680555555555555</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.27499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.72777777777777775</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.51666666666666672</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.52708333333333335</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.57916666666666672</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.3125</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.38541666666666669</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.47013888888888888</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.64374999999999993</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.72499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.71666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.76736111111111116</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.8208333333333333</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.43402777777777773</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.31319444444444444</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.38680555555555557</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.7729166666666667</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.40069444444444446</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.63750000000000007</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.66111111111111109</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.48541666666666666</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.35902777777777778</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.69652777777777775</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.44305555555555554</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.25208333333333333</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.37083333333333335</c:v>
+                </c:pt>
+                <c:pt idx="124">
                   <c:v>0.65277777777777779</c:v>
                 </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.37638888888888888</c:v>
-                </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="125">
+                  <c:v>0.4069444444444445</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.7597222222222223</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.40208333333333335</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.55902777777777779</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.28125</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.25347222222222221</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.59305555555555556</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.7402777777777777</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.51666666666666672</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.48749999999999999</c:v>
+                </c:pt>
+                <c:pt idx="135">
                   <c:v>0.64930555555555558</c:v>
                 </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.99097222222222225</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.54513888888888895</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.7090277777777777</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.84652777777777777</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.37986111111111115</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.64861111111111114</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.15138888888888888</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>8.1944444444444445E-2</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.16805555555555554</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.67847222222222225</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>3.8194444444444441E-2</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>5.7638888888888885E-2</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.84583333333333333</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.95138888888888884</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.64236111111111105</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.24166666666666667</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.53819444444444442</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.50694444444444442</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.25555555555555559</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.34236111111111112</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.48541666666666666</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.68333333333333324</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.72013888888888899</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.75416666666666676</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.31458333333333333</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.5444444444444444</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.68125000000000002</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.54305555555555551</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.68680555555555556</c:v>
-                </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="136">
                   <c:v>0.70694444444444438</c:v>
                 </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.36458333333333331</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.26111111111111113</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.49444444444444446</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.51388888888888895</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.54027777777777775</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.78194444444444444</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.47986111111111113</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.54861111111111105</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.47638888888888892</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.31736111111111115</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.41041666666666665</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.31527777777777777</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.83194444444444438</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.78541666666666676</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.54861111111111105</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.59444444444444444</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.61875000000000002</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.3888888888888889</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.7680555555555556</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.8305555555555556</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.60763888888888895</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.53472222222222221</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.39166666666666666</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.38263888888888892</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.4770833333333333</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.45694444444444443</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.49444444444444446</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.6791666666666667</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.4909722222222222</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.35555555555555557</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.52152777777777781</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.48333333333333334</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.57291666666666663</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.68819444444444444</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.4597222222222222</c:v>
+                <c:pt idx="137">
+                  <c:v>0.75138888888888899</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.58611111111111114</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.38958333333333334</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.51250000000000007</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.76458333333333339</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.63124999999999998</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.53402777777777777</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.54097222222222219</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.53611111111111109</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.69930555555555562</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.55069444444444449</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.76944444444444438</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.82430555555555562</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.81874999999999998</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.33055555555555555</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.64722222222222225</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.60138888888888886</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.34166666666666662</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.55833333333333335</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.76666666666666661</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.79236111111111107</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.34722222222222227</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.50624999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$H$5:$H$104</c:f>
+              <c:f>'tt-2'!$H$2:$H$161</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="160"/>
                 <c:pt idx="0">
-                  <c:v>69.099999999999994</c:v>
+                  <c:v>61.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>90.5</c:v>
+                  <c:v>60.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>60.4</c:v>
+                  <c:v>68.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>70.099999999999994</c:v>
+                  <c:v>88.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>69.8</c:v>
+                  <c:v>66.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>59.7</c:v>
+                  <c:v>88.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>78.599999999999994</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>60.6</c:v>
+                  <c:v>61.6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>75</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>80.8</c:v>
+                  <c:v>56.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>60</c:v>
+                  <c:v>62.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>57.1</c:v>
+                  <c:v>71.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>70.599999999999994</c:v>
+                  <c:v>92.7</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>74.3</c:v>
+                  <c:v>74.099999999999994</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>60</c:v>
+                  <c:v>89.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>69</c:v>
+                  <c:v>61.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>60.3</c:v>
+                  <c:v>69.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>77.3</c:v>
+                  <c:v>94.1</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>70.099999999999994</c:v>
+                  <c:v>68.099999999999994</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>73.400000000000006</c:v>
+                  <c:v>69.3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>98.8</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>70.8</c:v>
+                  <c:v>62.1</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>55.9</c:v>
+                  <c:v>71.2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>64.3</c:v>
+                  <c:v>85.9</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>61.1</c:v>
+                  <c:v>72.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>58.3</c:v>
+                  <c:v>58.4</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>58.8</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>57.9</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="28">
+                  <c:v>59.9</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>58.6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>56.6</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>58.6</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>91.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>71.2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>69.8</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>69.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>58.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>74.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>60.9</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>91.9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>79.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>63.8</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>69.3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>70.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>58.6</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>59.4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>58.6</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>58.9</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>59.9</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>68.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>66.7</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>71.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>61.3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>61.7</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>90.1</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>72.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>87.3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>60.3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>64.7</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>60.3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>70.5</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>57.6</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>69.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>59.8</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>71.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>61.6</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>55.8</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>88.8</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>60.2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>71.8</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>89.2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>73.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>98.8</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>68.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>88.4</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>97.5</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>78.3</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>69.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>69.7</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>95.7</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>96.9</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>66.8</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>88.9</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>70.2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>69.8</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>66.8</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>66.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>69.8</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>70.7</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>70.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>69.7</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>80.5</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>88.6</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>74.8</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>69.2</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>80.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>78.7</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>66.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>70.8</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>68.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>88.7</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>76.5</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>74.3</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>90.4</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>89.4</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>68.7</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>79.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>88.5</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>72.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>72.2</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>87.3</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>69.2</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>69.8</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>77.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>70.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>68.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>66.8</c:v>
+                </c:pt>
+                <c:pt idx="131">
                   <c:v>90.9</c:v>
                 </c:pt>
-                <c:pt idx="29">
-                  <c:v>72.5</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>58.7</c:v>
-                </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="132">
+                  <c:v>71.7</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>70.2</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>66.2</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>86.3</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>82.2</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>71.2</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>96.8</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>76.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="140">
                   <c:v>70.099999999999994</c:v>
                 </c:pt>
-                <c:pt idx="33">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>88.1</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>58.9</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>54.8</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>60.6</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>89.6</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>60.1</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>60.9</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>58.4</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>90.1</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>56.2</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>69.8</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>69.8</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>70.8</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>87.7</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>69.099999999999994</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>90.8</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>78.099999999999994</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>69.7</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>88.5</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>70.7</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>72.8</c:v>
-                </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="141">
+                  <c:v>70.5</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>89.4</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>70.2</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>68.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="146">
                   <c:v>85.2</c:v>
                 </c:pt>
-                <c:pt idx="60">
-                  <c:v>83.7</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>73.599999999999994</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>70.2</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>72.900000000000006</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>69.7</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>71.400000000000006</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>71.3</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>68.2</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>88.7</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>73.2</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>93.4</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>67.099999999999994</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>70.400000000000006</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>69.599999999999994</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>87.7</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>97.4</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>75.3</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>71.400000000000006</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>72.5</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>91.6</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>68.400000000000006</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>74.599999999999994</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>75.099999999999994</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="147">
+                  <c:v>72.7</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>66.7</c:v>
+                </c:pt>
+                <c:pt idx="149">
                   <c:v>68.099999999999994</c:v>
                 </c:pt>
-                <c:pt idx="88">
-                  <c:v>67.8</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>89.9</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>71.2</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>80.7</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>65.7</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>68.3</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>80.5</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>90.1</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>71</c:v>
+                <c:pt idx="150">
+                  <c:v>74.3</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>94.8</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>89.2</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>90.9</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>93.2</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>70.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>70.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>66.8</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>89.4</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>69.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1359,7 +1739,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$98</c:f>
+              <c:f>'tt-1'!$A$2:$A$98</c:f>
               <c:numCache>
                 <c:formatCode>h:mm;@</c:formatCode>
                 <c:ptCount val="97"/>
@@ -1659,7 +2039,1937 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$98</c:f>
+              <c:f>'tt-2'!$D$2:$D$98</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="97"/>
+                <c:pt idx="0">
+                  <c:v>59.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>59.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>59.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>59.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>59.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>59.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>59.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>60.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>60.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>60.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>60.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>60.6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>60.6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>60.6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>60.6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>60.6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>60.6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>60.6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>60.6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>89.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>89.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>89.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>89.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>89.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>89.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>89.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>89.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>89.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>70.8</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>70.8</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>70.8</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>70.8</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>70.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>70.8</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>70.8</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>70.8</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>70.8</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>70.8</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>70.8</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>70.8</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>70.8</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>70.8</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>70.8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>70.8</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>70.8</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>70.8</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>70.8</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>70.8</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>70.8</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>70.8</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>90.9</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>90.9</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>90.9</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>90.9</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>90.9</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>90.9</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>90.9</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>90.9</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>90.9</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>90.9</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>73.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>73.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>73.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>73.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>73.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>73.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>73.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>73.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>73.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>73.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>60.8</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>60.8</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>60.8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>60.8</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>60.8</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>60.8</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>60.8</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>60.8</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>60.8</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>60.8</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>60.8</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>59.7</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>59.7</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>59.7</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>59.7</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>59.7</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>59.7</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>59.7</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>59.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="93943296"/>
+        <c:axId val="94057216"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="93943296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="h:mm;@" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="94057216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="94057216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="50"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="93943296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="cs-CZ"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Simulation model</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'tt-1'!$A$2:$A$98</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm;@</c:formatCode>
+                <c:ptCount val="97"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0416666666666666E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0833333333333301E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.1666666666666699E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.2083333333333301E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.2916666666666699E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.3333333333333301E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.375E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.104166666666667</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.114583333333333</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.13541666666666699</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.14583333333333301</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15625</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16666666666666699</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17708333333333301</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.1875</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19791666666666699</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.20833333333333301</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.21875</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.22916666666666699</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.23958333333333301</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.26041666666666702</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.27083333333333298</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.28125</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.29166666666666702</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.30208333333333298</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.3125</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.32291666666666702</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.33333333333333298</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.34375</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.35416666666666702</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.36458333333333298</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.38541666666666702</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.39583333333333298</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.40625</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.41666666666666702</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.42708333333333298</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.4375</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.44791666666666702</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.45833333333333298</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.46875</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.47916666666666702</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.48958333333333298</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.51041666666666696</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.52083333333333304</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.53125</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.54166666666666696</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.55208333333333304</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.5625</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.57291666666666696</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.58333333333333304</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.59375</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.60416666666666696</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.61458333333333304</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.63541666666666696</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.64583333333333304</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.65625</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.66666666666666696</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.67708333333333304</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.6875</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.69791666666666696</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.70833333333333304</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.71875</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.72916666666666696</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.73958333333333304</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.76041666666666696</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.77083333333333304</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.78125</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.79166666666666696</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.80208333333333304</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.8125</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.82291666666666696</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.83333333333333304</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.84375</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.85416666666666696</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.86458333333333304</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.88541666666666696</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.89583333333333304</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.90625</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.91666666666666696</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.92708333333333304</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.9375</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.94791666666666696</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.95833333333333304</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.96875</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.97916666666666696</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.98958333333333304</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'tt-1'!$B$2:$B$98</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="97"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Simulated data</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="7"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'tt-1'!$G$5:$G$104</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.28541666666666665</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.68680555555555556</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.95208333333333339</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.42291666666666666</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16111111111111112</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.70972222222222225</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0416666666666666E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.41319444444444442</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.72430555555555554</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.11388888888888889</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.5416666666666666E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.75069444444444444</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.73333333333333339</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.11805555555555557</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.5395833333333333</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.21875</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.56805555555555554</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.76180555555555562</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.38819444444444445</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.62361111111111112</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.78680555555555554</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.361111111111111E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.42291666666666666</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.22847222222222222</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.7222222222222224E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.15555555555555556</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.4999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.65277777777777779</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.37638888888888888</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.64930555555555558</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.99097222222222225</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.54513888888888895</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.7090277777777777</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.84652777777777777</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.37986111111111115</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.64861111111111114</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.15138888888888888</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8.1944444444444445E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.16805555555555554</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.67847222222222225</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.8194444444444441E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.7638888888888885E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.84583333333333333</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.95138888888888884</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.64236111111111105</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.24166666666666667</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.53819444444444442</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.50694444444444442</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.25555555555555559</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.34236111111111112</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.48541666666666666</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.68333333333333324</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.72013888888888899</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.75416666666666676</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.31458333333333333</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.5444444444444444</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.68125000000000002</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.54305555555555551</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.68680555555555556</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.70694444444444438</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.36458333333333331</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.26111111111111113</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.49444444444444446</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.51388888888888895</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.54027777777777775</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.78194444444444444</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.47986111111111113</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.54861111111111105</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.47638888888888892</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.31736111111111115</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.41041666666666665</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.31527777777777777</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.83194444444444438</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.78541666666666676</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.54861111111111105</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.59444444444444444</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.61875000000000002</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.3888888888888889</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.7680555555555556</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.8305555555555556</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.60763888888888895</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.53472222222222221</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.39166666666666666</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.38263888888888892</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.4770833333333333</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.45694444444444443</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.49444444444444446</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.6791666666666667</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.4909722222222222</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.35555555555555557</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.52152777777777781</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.48333333333333334</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.57291666666666663</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.68819444444444444</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.4597222222222222</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'tt-1'!$H$5:$H$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>69.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>69.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>59.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>78.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>80.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>57.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>70.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>74.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>60.3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>77.3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>70.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>73.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>98.8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>70.8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>55.9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>64.3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>61.1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>58.3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>58.8</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>57.9</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>90.9</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>72.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>58.7</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>70.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>88.1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>58.9</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>54.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>60.6</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>89.6</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>60.1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>60.9</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>58.4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>90.1</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>56.2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>69.8</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>69.8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>70.8</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>87.7</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>69.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>90.8</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>78.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>69.7</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>88.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>70.7</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>72.8</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>85.2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>83.7</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>73.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>70.2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>72.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>69.7</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>71.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>71.3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>68.2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>88.7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>73.2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>93.4</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>67.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>70.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>69.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>87.7</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>97.4</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>75.3</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>71.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>72.5</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>91.6</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>68.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>74.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>75.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>68.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>67.8</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89.9</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>71.2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>80.7</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>65.7</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>68.3</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>80.5</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>90.1</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>71</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Estimated model</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'tt-1'!$A$2:$A$98</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm;@</c:formatCode>
+                <c:ptCount val="97"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0416666666666666E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0833333333333301E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.1666666666666699E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.2083333333333301E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.2916666666666699E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.3333333333333301E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.375E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.104166666666667</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.114583333333333</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.13541666666666699</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.14583333333333301</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15625</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16666666666666699</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17708333333333301</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.1875</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19791666666666699</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.20833333333333301</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.21875</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.22916666666666699</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.23958333333333301</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.26041666666666702</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.27083333333333298</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.28125</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.29166666666666702</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.30208333333333298</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.3125</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.32291666666666702</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.33333333333333298</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.34375</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.35416666666666702</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.36458333333333298</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.38541666666666702</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.39583333333333298</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.40625</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.41666666666666702</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.42708333333333298</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.4375</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.44791666666666702</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.45833333333333298</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.46875</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.47916666666666702</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.48958333333333298</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.51041666666666696</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.52083333333333304</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.53125</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.54166666666666696</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.55208333333333304</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.5625</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.57291666666666696</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.58333333333333304</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.59375</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.60416666666666696</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.61458333333333304</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.63541666666666696</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.64583333333333304</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.65625</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.66666666666666696</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.67708333333333304</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.6875</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.69791666666666696</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.70833333333333304</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.71875</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.72916666666666696</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.73958333333333304</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.76041666666666696</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.77083333333333304</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.78125</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.79166666666666696</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.80208333333333304</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.8125</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.82291666666666696</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.83333333333333304</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.84375</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.85416666666666696</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.86458333333333304</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.88541666666666696</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.89583333333333304</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.90625</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.91666666666666696</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.92708333333333304</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.9375</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.94791666666666696</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.95833333333333304</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.96875</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.97916666666666696</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.98958333333333304</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'tt-1'!$D$2:$D$98</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="97"/>
@@ -2020,7 +4330,18 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="102" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2028,6 +4349,33 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9300882" cy="6079191"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1" noMove="1" noResize="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -2341,9 +4689,2585 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H161"/>
+  <sheetViews>
+    <sheetView topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <f>60+C2</f>
+        <v>60</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>59.7</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.10277777777777779</v>
+      </c>
+      <c r="H2">
+        <v>61.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B66" si="0">60+C3</f>
+        <v>60</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>59.7</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.99513888888888891</v>
+      </c>
+      <c r="H3">
+        <v>60.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2.0833333333333301E-2</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>59.7</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.47986111111111113</v>
+      </c>
+      <c r="H4">
+        <v>68.599999999999994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>3.125E-2</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>59.7</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.64513888888888882</v>
+      </c>
+      <c r="H5">
+        <v>88.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>4.1666666666666699E-2</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>59.7</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.46319444444444446</v>
+      </c>
+      <c r="H6">
+        <v>66.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>5.2083333333333301E-2</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>59.7</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="H7">
+        <v>88.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>6.25E-2</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>59.7</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.67569444444444438</v>
+      </c>
+      <c r="H8">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>7.2916666666666699E-2</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>60.6</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.87638888888888899</v>
+      </c>
+      <c r="H9">
+        <v>61.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>60.6</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.74930555555555556</v>
+      </c>
+      <c r="H10">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>9.375E-2</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>60.6</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.89861111111111114</v>
+      </c>
+      <c r="H11">
+        <v>56.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>0.104166666666667</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>60.6</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.88263888888888886</v>
+      </c>
+      <c r="H12">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>0.114583333333333</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>60.6</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.56180555555555556</v>
+      </c>
+      <c r="H13">
+        <v>71.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>60.6</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.63611111111111118</v>
+      </c>
+      <c r="H14">
+        <v>92.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>0.13541666666666699</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>60.6</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.40416666666666662</v>
+      </c>
+      <c r="H15">
+        <v>74.099999999999994</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>0.14583333333333301</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>60.6</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.67499999999999993</v>
+      </c>
+      <c r="H16">
+        <v>89.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>0.15625</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>60.6</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.89097222222222217</v>
+      </c>
+      <c r="H17">
+        <v>61.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>60.6</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.47013888888888888</v>
+      </c>
+      <c r="H18">
+        <v>69.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>0.17708333333333301</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>60.6</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.61944444444444446</v>
+      </c>
+      <c r="H19">
+        <v>94.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>0.1875</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>60.6</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.48402777777777778</v>
+      </c>
+      <c r="H20">
+        <v>68.099999999999994</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>0.19791666666666699</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>60.6</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.43958333333333338</v>
+      </c>
+      <c r="H21">
+        <v>69.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>0.20833333333333301</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>60.6</v>
+      </c>
+      <c r="G22" s="1">
+        <v>3.125E-2</v>
+      </c>
+      <c r="H22">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>0.21875</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>60.6</v>
+      </c>
+      <c r="G23" s="1">
+        <v>8.1944444444444445E-2</v>
+      </c>
+      <c r="H23">
+        <v>62.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>0.22916666666666699</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>60.6</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.83263888888888893</v>
+      </c>
+      <c r="H24">
+        <v>71.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>0.23958333333333301</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>60.6</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0.69861111111111107</v>
+      </c>
+      <c r="H25">
+        <v>85.9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="C26">
+        <v>10</v>
+      </c>
+      <c r="D26">
+        <v>60.6</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0.46875</v>
+      </c>
+      <c r="H26">
+        <v>72.599999999999994</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>0.26041666666666702</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="C27">
+        <v>10</v>
+      </c>
+      <c r="D27">
+        <v>89.5</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0.1013888888888889</v>
+      </c>
+      <c r="H27">
+        <v>58.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>0.27083333333333298</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="C28">
+        <v>10</v>
+      </c>
+      <c r="D28">
+        <v>89.5</v>
+      </c>
+      <c r="G28" s="1">
+        <v>7.1527777777777787E-2</v>
+      </c>
+      <c r="H28">
+        <v>58.8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>0.28125</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="C29">
+        <v>10</v>
+      </c>
+      <c r="D29">
+        <v>89.5</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="H29">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="C30">
+        <v>30</v>
+      </c>
+      <c r="D30">
+        <v>89.5</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0.14305555555555557</v>
+      </c>
+      <c r="H30">
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>0.30208333333333298</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="C31">
+        <v>30</v>
+      </c>
+      <c r="D31">
+        <v>89.5</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0.18333333333333335</v>
+      </c>
+      <c r="H31">
+        <v>58.6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="C32">
+        <v>30</v>
+      </c>
+      <c r="D32">
+        <v>89.5</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0.94374999999999998</v>
+      </c>
+      <c r="H32">
+        <v>56.6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>0.32291666666666702</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="C33">
+        <v>30</v>
+      </c>
+      <c r="D33">
+        <v>89.5</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0.86736111111111114</v>
+      </c>
+      <c r="H33">
+        <v>58.6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="C34">
+        <v>30</v>
+      </c>
+      <c r="D34">
+        <v>89.5</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0.6430555555555556</v>
+      </c>
+      <c r="H34">
+        <v>91.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>0.34375</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="C35">
+        <v>30</v>
+      </c>
+      <c r="D35">
+        <v>89.5</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0.73055555555555562</v>
+      </c>
+      <c r="H35">
+        <v>71.2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>0.35416666666666702</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="C36">
+        <v>20</v>
+      </c>
+      <c r="D36">
+        <v>70.8</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0.27152777777777776</v>
+      </c>
+      <c r="H36">
+        <v>69.8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>0.36458333333333298</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="C37">
+        <v>15</v>
+      </c>
+      <c r="D37">
+        <v>70.8</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0.48888888888888887</v>
+      </c>
+      <c r="H37">
+        <v>69.900000000000006</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="C38">
+        <v>15</v>
+      </c>
+      <c r="D38">
+        <v>70.8</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0.14722222222222223</v>
+      </c>
+      <c r="H38">
+        <v>58.6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>0.38541666666666702</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="C39">
+        <v>15</v>
+      </c>
+      <c r="D39">
+        <v>70.8</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0.5395833333333333</v>
+      </c>
+      <c r="H39">
+        <v>74.099999999999994</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>0.39583333333333298</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="C40">
+        <v>15</v>
+      </c>
+      <c r="D40">
+        <v>70.8</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0.18402777777777779</v>
+      </c>
+      <c r="H40">
+        <v>60.9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>0.40625</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="C41">
+        <v>15</v>
+      </c>
+      <c r="D41">
+        <v>70.8</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0.67152777777777783</v>
+      </c>
+      <c r="H41">
+        <v>91.9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="C42">
+        <v>15</v>
+      </c>
+      <c r="D42">
+        <v>70.8</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0.57430555555555551</v>
+      </c>
+      <c r="H42">
+        <v>79.900000000000006</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>0.42708333333333298</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="C43">
+        <v>10</v>
+      </c>
+      <c r="D43">
+        <v>70.8</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0.19305555555555554</v>
+      </c>
+      <c r="H43">
+        <v>63.8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="C44">
+        <v>10</v>
+      </c>
+      <c r="D44">
+        <v>70.8</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H44">
+        <v>69.3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>0.44791666666666702</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>10</v>
+      </c>
+      <c r="D45">
+        <v>70.8</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0.42152777777777778</v>
+      </c>
+      <c r="H45">
+        <v>70.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="C46">
+        <v>10</v>
+      </c>
+      <c r="D46">
+        <v>70.8</v>
+      </c>
+      <c r="G46" s="1">
+        <v>2.9861111111111113E-2</v>
+      </c>
+      <c r="H46">
+        <v>58.6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>0.46875</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="C47">
+        <v>10</v>
+      </c>
+      <c r="D47">
+        <v>70.8</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0.98472222222222217</v>
+      </c>
+      <c r="H47">
+        <v>59.4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>0.47916666666666702</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="C48">
+        <v>10</v>
+      </c>
+      <c r="D48">
+        <v>70.8</v>
+      </c>
+      <c r="G48" s="1">
+        <v>1.5972222222222224E-2</v>
+      </c>
+      <c r="H48">
+        <v>58.6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>0.48958333333333298</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="C49">
+        <v>10</v>
+      </c>
+      <c r="D49">
+        <v>70.8</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0.97083333333333333</v>
+      </c>
+      <c r="H49">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="C50">
+        <v>10</v>
+      </c>
+      <c r="D50">
+        <v>70.8</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0.13125000000000001</v>
+      </c>
+      <c r="H50">
+        <v>58.9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>0.51041666666666696</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="C51">
+        <v>10</v>
+      </c>
+      <c r="D51">
+        <v>70.8</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0.95347222222222217</v>
+      </c>
+      <c r="H51">
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="C52">
+        <v>10</v>
+      </c>
+      <c r="D52">
+        <v>70.8</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0.50486111111111109</v>
+      </c>
+      <c r="H52">
+        <v>68.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>0.53125</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="C53">
+        <v>10</v>
+      </c>
+      <c r="D53">
+        <v>70.8</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0.46388888888888885</v>
+      </c>
+      <c r="H53">
+        <v>66.7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="C54">
+        <v>10</v>
+      </c>
+      <c r="D54">
+        <v>70.8</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0.81874999999999998</v>
+      </c>
+      <c r="H54">
+        <v>71.599999999999994</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>0.55208333333333304</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="C55">
+        <v>10</v>
+      </c>
+      <c r="D55">
+        <v>70.8</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0.17222222222222225</v>
+      </c>
+      <c r="H55">
+        <v>61.3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="C56">
+        <v>15</v>
+      </c>
+      <c r="D56">
+        <v>70.8</v>
+      </c>
+      <c r="G56" s="1">
+        <v>0.16111111111111112</v>
+      </c>
+      <c r="H56">
+        <v>61.7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>0.57291666666666696</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="C57">
+        <v>20</v>
+      </c>
+      <c r="D57">
+        <v>70.8</v>
+      </c>
+      <c r="G57" s="1">
+        <v>0.62916666666666665</v>
+      </c>
+      <c r="H57">
+        <v>90.1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="C58">
+        <v>35</v>
+      </c>
+      <c r="D58">
+        <v>90.9</v>
+      </c>
+      <c r="G58" s="1">
+        <v>0.38125000000000003</v>
+      </c>
+      <c r="H58">
+        <v>72.599999999999994</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>0.59375</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="C59">
+        <v>35</v>
+      </c>
+      <c r="D59">
+        <v>90.9</v>
+      </c>
+      <c r="G59" s="1">
+        <v>0.60138888888888886</v>
+      </c>
+      <c r="H59">
+        <v>87.3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="C60">
+        <v>35</v>
+      </c>
+      <c r="D60">
+        <v>90.9</v>
+      </c>
+      <c r="G60" s="1">
+        <v>0.23055555555555554</v>
+      </c>
+      <c r="H60">
+        <v>60.3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>0.61458333333333304</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="C61">
+        <v>35</v>
+      </c>
+      <c r="D61">
+        <v>90.9</v>
+      </c>
+      <c r="G61" s="1">
+        <v>0.56597222222222221</v>
+      </c>
+      <c r="H61">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="C62">
+        <v>30</v>
+      </c>
+      <c r="D62">
+        <v>90.9</v>
+      </c>
+      <c r="G62" s="1">
+        <v>0.49236111111111108</v>
+      </c>
+      <c r="H62">
+        <v>64.7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>0.63541666666666696</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="C63">
+        <v>30</v>
+      </c>
+      <c r="D63">
+        <v>90.9</v>
+      </c>
+      <c r="G63" s="1">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="H63">
+        <v>60.3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>0.64583333333333304</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="C64">
+        <v>30</v>
+      </c>
+      <c r="D64">
+        <v>90.9</v>
+      </c>
+      <c r="G64" s="1">
+        <v>0.41597222222222219</v>
+      </c>
+      <c r="H64">
+        <v>70.5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>0.65625</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>30</v>
+      </c>
+      <c r="D65">
+        <v>90.9</v>
+      </c>
+      <c r="G65" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="H65">
+        <v>57.6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="C66">
+        <v>30</v>
+      </c>
+      <c r="D66">
+        <v>90.9</v>
+      </c>
+      <c r="G66" s="1">
+        <v>0.32222222222222224</v>
+      </c>
+      <c r="H66">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>0.67708333333333304</v>
+      </c>
+      <c r="B67">
+        <f t="shared" ref="B67:B98" si="1">60+C67</f>
+        <v>90</v>
+      </c>
+      <c r="C67">
+        <v>30</v>
+      </c>
+      <c r="D67">
+        <v>90.9</v>
+      </c>
+      <c r="G67" s="1">
+        <v>0.5444444444444444</v>
+      </c>
+      <c r="H67">
+        <v>69.599999999999994</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>0.6875</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="C68">
+        <v>30</v>
+      </c>
+      <c r="D68">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="G68" s="1">
+        <v>4.9999999999999996E-2</v>
+      </c>
+      <c r="H68">
+        <v>59.8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>0.69791666666666696</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="C69">
+        <v>25</v>
+      </c>
+      <c r="D69">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="G69" s="1">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="H69">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="C70">
+        <v>20</v>
+      </c>
+      <c r="D70">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="G70" s="1">
+        <v>0.48819444444444443</v>
+      </c>
+      <c r="H70">
+        <v>71.099999999999994</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>0.71875</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="C71">
+        <v>20</v>
+      </c>
+      <c r="D71">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="G71" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="H71">
+        <v>61.6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>0.72916666666666696</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="C72">
+        <v>15</v>
+      </c>
+      <c r="D72">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="G72" s="1">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="H72">
+        <v>55.8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>0.73958333333333304</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="C73">
+        <v>10</v>
+      </c>
+      <c r="D73">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="G73" s="1">
+        <v>0.2951388888888889</v>
+      </c>
+      <c r="H73">
+        <v>88.8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="C74">
+        <v>10</v>
+      </c>
+      <c r="D74">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="G74" s="1">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="H74">
+        <v>60.2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>0.76041666666666696</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="C75">
+        <v>10</v>
+      </c>
+      <c r="D75">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="G75" s="1">
+        <v>0.41736111111111113</v>
+      </c>
+      <c r="H75">
+        <v>71.8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>0.77083333333333304</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="C76">
+        <v>10</v>
+      </c>
+      <c r="D76">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="G76" s="1">
+        <v>0.33055555555555555</v>
+      </c>
+      <c r="H76">
+        <v>89.2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>0.78125</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="C77">
+        <v>10</v>
+      </c>
+      <c r="D77">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="G77" s="1">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="H77">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="C78">
+        <v>10</v>
+      </c>
+      <c r="D78">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="G78" s="1">
+        <v>0.41736111111111113</v>
+      </c>
+      <c r="H78">
+        <v>73.099999999999994</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
+        <v>0.80208333333333304</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="C79">
+        <v>10</v>
+      </c>
+      <c r="D79">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="G79" s="1">
+        <v>0.62361111111111112</v>
+      </c>
+      <c r="H79">
+        <v>98.8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <v>0.8125</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="C80">
+        <v>10</v>
+      </c>
+      <c r="D80">
+        <v>60.8</v>
+      </c>
+      <c r="G80" s="1">
+        <v>0.4465277777777778</v>
+      </c>
+      <c r="H80">
+        <v>68.400000000000006</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <v>0.82291666666666696</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="C81">
+        <v>10</v>
+      </c>
+      <c r="D81">
+        <v>60.8</v>
+      </c>
+      <c r="G81" s="1">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="H81">
+        <v>88.4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>60.8</v>
+      </c>
+      <c r="G82" s="1">
+        <v>0.61875000000000002</v>
+      </c>
+      <c r="H82">
+        <v>97.5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
+        <v>0.84375</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>60.8</v>
+      </c>
+      <c r="G83" s="1">
+        <v>0.71944444444444444</v>
+      </c>
+      <c r="H83">
+        <v>78.3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>0.85416666666666696</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>60.8</v>
+      </c>
+      <c r="G84" s="1">
+        <v>0.44513888888888892</v>
+      </c>
+      <c r="H84">
+        <v>69.900000000000006</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
+        <v>0.86458333333333304</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>60.8</v>
+      </c>
+      <c r="G85" s="1">
+        <v>0.48680555555555555</v>
+      </c>
+      <c r="H85">
+        <v>69.7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>60.8</v>
+      </c>
+      <c r="G86" s="1">
+        <v>0.27361111111111108</v>
+      </c>
+      <c r="H86">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
+        <v>0.88541666666666696</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>60.8</v>
+      </c>
+      <c r="G87" s="1">
+        <v>0.62361111111111112</v>
+      </c>
+      <c r="H87">
+        <v>95.7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
+        <v>0.89583333333333304</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>60.8</v>
+      </c>
+      <c r="G88" s="1">
+        <v>0.73263888888888884</v>
+      </c>
+      <c r="H88">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
+        <v>0.90625</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>60.8</v>
+      </c>
+      <c r="G89" s="1">
+        <v>0.60972222222222217</v>
+      </c>
+      <c r="H89">
+        <v>96.9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>60.8</v>
+      </c>
+      <c r="G90" s="1">
+        <v>0.76597222222222217</v>
+      </c>
+      <c r="H90">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
+        <v>0.92708333333333304</v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>59.7</v>
+      </c>
+      <c r="G91" s="1">
+        <v>0.34375</v>
+      </c>
+      <c r="H91">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="B92">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>59.7</v>
+      </c>
+      <c r="G92" s="1">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="H92">
+        <v>66.8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
+        <v>0.94791666666666696</v>
+      </c>
+      <c r="B93">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>59.7</v>
+      </c>
+      <c r="G93" s="1">
+        <v>0.65138888888888891</v>
+      </c>
+      <c r="H93">
+        <v>88.9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
+        <v>0.95833333333333304</v>
+      </c>
+      <c r="B94">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>59.7</v>
+      </c>
+      <c r="G94" s="1">
+        <v>0.25208333333333333</v>
+      </c>
+      <c r="H94">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
+        <v>0.96875</v>
+      </c>
+      <c r="B95">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>59.7</v>
+      </c>
+      <c r="G95" s="1">
+        <v>0.27638888888888885</v>
+      </c>
+      <c r="H95">
+        <v>70.2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
+        <v>0.97916666666666696</v>
+      </c>
+      <c r="B96">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>59.7</v>
+      </c>
+      <c r="G96" s="1">
+        <v>0.54305555555555551</v>
+      </c>
+      <c r="H96">
+        <v>69.8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="2">
+        <v>0.98958333333333304</v>
+      </c>
+      <c r="B97">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>59.7</v>
+      </c>
+      <c r="G97" s="1">
+        <v>0.43194444444444446</v>
+      </c>
+      <c r="H97">
+        <v>66.8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="2">
+        <v>1</v>
+      </c>
+      <c r="B98">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>59.7</v>
+      </c>
+      <c r="G98" s="1">
+        <v>0.28680555555555554</v>
+      </c>
+      <c r="H98">
+        <v>66.400000000000006</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G99" s="1">
+        <v>0.4680555555555555</v>
+      </c>
+      <c r="H99">
+        <v>69.8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G100" s="1">
+        <v>0.27499999999999997</v>
+      </c>
+      <c r="H100">
+        <v>70.7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G101" s="1">
+        <v>0.72777777777777775</v>
+      </c>
+      <c r="H101">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G102" s="1">
+        <v>0.51666666666666672</v>
+      </c>
+      <c r="H102">
+        <v>70.900000000000006</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G103" s="1">
+        <v>0.52708333333333335</v>
+      </c>
+      <c r="H103">
+        <v>69.7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G104" s="1">
+        <v>0.57916666666666672</v>
+      </c>
+      <c r="H104">
+        <v>80.5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G105" s="1">
+        <v>0.3125</v>
+      </c>
+      <c r="H105">
+        <v>88.6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G106" s="1">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="H106">
+        <v>74.8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G107" s="1">
+        <v>0.47013888888888888</v>
+      </c>
+      <c r="H107">
+        <v>69.2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G108" s="1">
+        <v>0.64374999999999993</v>
+      </c>
+      <c r="H108">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G109" s="1">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="H109">
+        <v>80.099999999999994</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G110" s="1">
+        <v>0.71666666666666667</v>
+      </c>
+      <c r="H110">
+        <v>78.7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G111" s="1">
+        <v>0.76736111111111116</v>
+      </c>
+      <c r="H111">
+        <v>66.900000000000006</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G112" s="1">
+        <v>0.8208333333333333</v>
+      </c>
+      <c r="H112">
+        <v>70.8</v>
+      </c>
+    </row>
+    <row r="113" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G113" s="1">
+        <v>0.43402777777777773</v>
+      </c>
+      <c r="H113">
+        <v>68.599999999999994</v>
+      </c>
+    </row>
+    <row r="114" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G114" s="1">
+        <v>0.31319444444444444</v>
+      </c>
+      <c r="H114">
+        <v>88.7</v>
+      </c>
+    </row>
+    <row r="115" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G115" s="1">
+        <v>0.38680555555555557</v>
+      </c>
+      <c r="H115">
+        <v>76.5</v>
+      </c>
+    </row>
+    <row r="116" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G116" s="1">
+        <v>0.7729166666666667</v>
+      </c>
+      <c r="H116">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="117" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G117" s="1">
+        <v>0.40069444444444446</v>
+      </c>
+      <c r="H117">
+        <v>74.3</v>
+      </c>
+    </row>
+    <row r="118" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G118" s="1">
+        <v>0.63750000000000007</v>
+      </c>
+      <c r="H118">
+        <v>90.4</v>
+      </c>
+    </row>
+    <row r="119" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G119" s="1">
+        <v>0.66111111111111109</v>
+      </c>
+      <c r="H119">
+        <v>89.4</v>
+      </c>
+    </row>
+    <row r="120" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G120" s="1">
+        <v>0.48541666666666666</v>
+      </c>
+      <c r="H120">
+        <v>68.7</v>
+      </c>
+    </row>
+    <row r="121" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G121" s="1">
+        <v>0.35902777777777778</v>
+      </c>
+      <c r="H121">
+        <v>79.400000000000006</v>
+      </c>
+    </row>
+    <row r="122" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G122" s="1">
+        <v>0.69652777777777775</v>
+      </c>
+      <c r="H122">
+        <v>88.5</v>
+      </c>
+    </row>
+    <row r="123" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G123" s="1">
+        <v>0.44305555555555554</v>
+      </c>
+      <c r="H123">
+        <v>72.599999999999994</v>
+      </c>
+    </row>
+    <row r="124" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G124" s="1">
+        <v>0.25208333333333333</v>
+      </c>
+      <c r="H124">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="125" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G125" s="1">
+        <v>0.37083333333333335</v>
+      </c>
+      <c r="H125">
+        <v>72.2</v>
+      </c>
+    </row>
+    <row r="126" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G126" s="1">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="H126">
+        <v>87.3</v>
+      </c>
+    </row>
+    <row r="127" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G127" s="1">
+        <v>0.4069444444444445</v>
+      </c>
+      <c r="H127">
+        <v>69.2</v>
+      </c>
+    </row>
+    <row r="128" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G128" s="1">
+        <v>0.7597222222222223</v>
+      </c>
+      <c r="H128">
+        <v>69.8</v>
+      </c>
+    </row>
+    <row r="129" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G129" s="1">
+        <v>0.40208333333333335</v>
+      </c>
+      <c r="H129">
+        <v>77.599999999999994</v>
+      </c>
+    </row>
+    <row r="130" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G130" s="1">
+        <v>0.55902777777777779</v>
+      </c>
+      <c r="H130">
+        <v>70.400000000000006</v>
+      </c>
+    </row>
+    <row r="131" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G131" s="1">
+        <v>0.28125</v>
+      </c>
+      <c r="H131">
+        <v>68.900000000000006</v>
+      </c>
+    </row>
+    <row r="132" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G132" s="1">
+        <v>0.25347222222222221</v>
+      </c>
+      <c r="H132">
+        <v>66.8</v>
+      </c>
+    </row>
+    <row r="133" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G133" s="1">
+        <v>0.59305555555555556</v>
+      </c>
+      <c r="H133">
+        <v>90.9</v>
+      </c>
+    </row>
+    <row r="134" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G134" s="1">
+        <v>0.7402777777777777</v>
+      </c>
+      <c r="H134">
+        <v>71.7</v>
+      </c>
+    </row>
+    <row r="135" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G135" s="1">
+        <v>0.51666666666666672</v>
+      </c>
+      <c r="H135">
+        <v>70.2</v>
+      </c>
+    </row>
+    <row r="136" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G136" s="1">
+        <v>0.48749999999999999</v>
+      </c>
+      <c r="H136">
+        <v>66.2</v>
+      </c>
+    </row>
+    <row r="137" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G137" s="1">
+        <v>0.64930555555555558</v>
+      </c>
+      <c r="H137">
+        <v>86.3</v>
+      </c>
+    </row>
+    <row r="138" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G138" s="1">
+        <v>0.70694444444444438</v>
+      </c>
+      <c r="H138">
+        <v>82.2</v>
+      </c>
+    </row>
+    <row r="139" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G139" s="1">
+        <v>0.75138888888888899</v>
+      </c>
+      <c r="H139">
+        <v>71.2</v>
+      </c>
+    </row>
+    <row r="140" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G140" s="1">
+        <v>0.58611111111111114</v>
+      </c>
+      <c r="H140">
+        <v>96.8</v>
+      </c>
+    </row>
+    <row r="141" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G141" s="1">
+        <v>0.38958333333333334</v>
+      </c>
+      <c r="H141">
+        <v>76.099999999999994</v>
+      </c>
+    </row>
+    <row r="142" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G142" s="1">
+        <v>0.51250000000000007</v>
+      </c>
+      <c r="H142">
+        <v>70.099999999999994</v>
+      </c>
+    </row>
+    <row r="143" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G143" s="1">
+        <v>0.76458333333333339</v>
+      </c>
+      <c r="H143">
+        <v>70.5</v>
+      </c>
+    </row>
+    <row r="144" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G144" s="1">
+        <v>0.63124999999999998</v>
+      </c>
+      <c r="H144">
+        <v>89.4</v>
+      </c>
+    </row>
+    <row r="145" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G145" s="1">
+        <v>0.53402777777777777</v>
+      </c>
+      <c r="H145">
+        <v>70.2</v>
+      </c>
+    </row>
+    <row r="146" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G146" s="1">
+        <v>0.54097222222222219</v>
+      </c>
+      <c r="H146">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="147" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G147" s="1">
+        <v>0.53611111111111109</v>
+      </c>
+      <c r="H147">
+        <v>68.599999999999994</v>
+      </c>
+    </row>
+    <row r="148" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G148" s="1">
+        <v>0.69930555555555562</v>
+      </c>
+      <c r="H148">
+        <v>85.2</v>
+      </c>
+    </row>
+    <row r="149" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G149" s="1">
+        <v>0.55069444444444449</v>
+      </c>
+      <c r="H149">
+        <v>72.7</v>
+      </c>
+    </row>
+    <row r="150" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G150" s="1">
+        <v>0.76944444444444438</v>
+      </c>
+      <c r="H150">
+        <v>66.7</v>
+      </c>
+    </row>
+    <row r="151" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G151" s="1">
+        <v>0.82430555555555562</v>
+      </c>
+      <c r="H151">
+        <v>68.099999999999994</v>
+      </c>
+    </row>
+    <row r="152" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G152" s="1">
+        <v>0.81874999999999998</v>
+      </c>
+      <c r="H152">
+        <v>74.3</v>
+      </c>
+    </row>
+    <row r="153" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G153" s="1">
+        <v>0.33055555555555555</v>
+      </c>
+      <c r="H153">
+        <v>94.8</v>
+      </c>
+    </row>
+    <row r="154" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G154" s="1">
+        <v>0.64722222222222225</v>
+      </c>
+      <c r="H154">
+        <v>89.2</v>
+      </c>
+    </row>
+    <row r="155" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G155" s="1">
+        <v>0.60138888888888886</v>
+      </c>
+      <c r="H155">
+        <v>90.9</v>
+      </c>
+    </row>
+    <row r="156" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G156" s="1">
+        <v>0.34166666666666662</v>
+      </c>
+      <c r="H156">
+        <v>93.2</v>
+      </c>
+    </row>
+    <row r="157" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G157" s="1">
+        <v>0.55833333333333335</v>
+      </c>
+      <c r="H157">
+        <v>70.099999999999994</v>
+      </c>
+    </row>
+    <row r="158" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G158" s="1">
+        <v>0.76666666666666661</v>
+      </c>
+      <c r="H158">
+        <v>70.099999999999994</v>
+      </c>
+    </row>
+    <row r="159" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G159" s="1">
+        <v>0.79236111111111107</v>
+      </c>
+      <c r="H159">
+        <v>66.8</v>
+      </c>
+    </row>
+    <row r="160" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G160" s="1">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H160">
+        <v>89.4</v>
+      </c>
+    </row>
+    <row r="161" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G161" s="1">
+        <v>0.50624999999999998</v>
+      </c>
+      <c r="H161">
+        <v>69.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="D81" sqref="D81:D98"/>
     </sheetView>
   </sheetViews>
@@ -4435,7 +9359,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -4447,7 +9371,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
